--- a/week9：排序/time_space.xlsx
+++ b/week9：排序/time_space.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="bubble_Sort" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="82">
   <si>
     <t>测试点</t>
   </si>
@@ -229,6 +229,46 @@
   </si>
   <si>
     <t>1652 KB</t>
+  </si>
+  <si>
+    <t>996 KB</t>
+  </si>
+  <si>
+    <t>1064 KB</t>
+  </si>
+  <si>
+    <t>20 ms</t>
+  </si>
+  <si>
+    <t>1024 KB</t>
+  </si>
+  <si>
+    <t>3283 ms</t>
+  </si>
+  <si>
+    <t>1620 KB</t>
+  </si>
+  <si>
+    <t>30 ms</t>
+  </si>
+  <si>
+    <t>1704 KB</t>
+  </si>
+  <si>
+    <t>3165 ms</t>
+  </si>
+  <si>
+    <t>49 ms</t>
+  </si>
+  <si>
+    <t>1632 KB</t>
+  </si>
+  <si>
+    <t>3406 ms</t>
+  </si>
+  <si>
+    <t>使用了表排序</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -914,15 +954,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -936,7 +976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -950,7 +990,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -964,7 +1004,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -978,7 +1018,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -992,7 +1032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1006,7 +1046,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1020,7 +1060,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1034,7 +1074,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1048,7 +1088,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1062,8 +1102,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1076,8 +1120,20 @@
       <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>0</v>
       </c>
@@ -1090,8 +1146,20 @@
       <c r="D17" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -1104,8 +1172,20 @@
       <c r="D18" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2</v>
       </c>
@@ -1118,8 +1198,20 @@
       <c r="D19" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="2">
+        <v>2</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>3</v>
       </c>
@@ -1132,8 +1224,20 @@
       <c r="D20" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="2">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>4</v>
       </c>
@@ -1146,8 +1250,20 @@
       <c r="D21" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="2">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>5</v>
       </c>
@@ -1160,8 +1276,20 @@
       <c r="D22" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="2">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>6</v>
       </c>
@@ -1174,8 +1302,20 @@
       <c r="D23" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="2">
+        <v>6</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>7</v>
       </c>
@@ -1188,8 +1328,20 @@
       <c r="D24" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G24" s="2">
+        <v>7</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>8</v>
       </c>
@@ -1201,11 +1353,24 @@
       </c>
       <c r="D25" s="2" t="s">
         <v>41</v>
+      </c>
+      <c r="G25" s="2">
+        <v>8</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1369,7 +1534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
